--- a/結合テスト.xlsx
+++ b/結合テスト.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="38">
   <si>
     <t>アカウント登録画面</t>
   </si>
@@ -152,6 +152,19 @@
     <t>アカウント登録完了画面に遷移した際、
 登録完了しましたと画面中央に大きくテキスト表示されている
 のを目視で確認</t>
+  </si>
+  <si>
+    <t>D.Iブログのナビゲーションバーのアカウント一覧ボタンを押下後
+アカウント一覧画面に遷移する</t>
+  </si>
+  <si>
+    <t>D.Iブログのナビゲーションバーにアカウント一覧があり
+アカウント一覧の部分を押下すると
+アカウント一覧画面に遷移する</t>
+  </si>
+  <si>
+    <t>実際にD.Iブログのナビゲーションバーにアカウント一覧があるのを目視で確認
+その後、アカウント一覧部分を押下した際アカウント一覧画面に遷移したことを確認</t>
   </si>
 </sst>
 </file>
@@ -203,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -224,6 +237,9 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -743,6 +759,26 @@
         <v>45365.0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="1">
+        <v>14.0</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7">
+        <v>45446.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
